--- a/PesticideLoadIndicator/inst/extdata/substances.xlsx
+++ b/PesticideLoadIndicator/inst/extdata/substances.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Moehring\Paper projects\Load package\package github download\Version 24.02.21\PesticideLoadIndicator\inst\extdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Moehring\Programs\Github\Load-Indicator\PesticideLoadIndicator\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="58">
   <si>
     <t>Cyproconazol</t>
   </si>
@@ -157,9 +157,6 @@
   </si>
   <si>
     <t>Alanto</t>
-  </si>
-  <si>
-    <t>Flurenolcarbonsäure</t>
   </si>
   <si>
     <t>Flurenol</t>
@@ -644,11 +641,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AT10"/>
+  <dimension ref="A1:AT9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B18" sqref="B18"/>
+      <selection pane="topRight" activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -702,19 +699,19 @@
   <sheetData>
     <row r="1" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F1" t="s">
         <v>36</v>
@@ -723,7 +720,7 @@
         <v>3</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I1" t="s">
         <v>37</v>
@@ -732,7 +729,7 @@
         <v>4</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L1" t="s">
         <v>38</v>
@@ -819,7 +816,7 @@
         <v>28</v>
       </c>
       <c r="AN1" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AO1" s="2" t="s">
         <v>29</v>
@@ -1267,10 +1264,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C5" s="2">
-        <v>6.5000000000000002E-2</v>
+        <v>6.5699999999999995E-2</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
@@ -1282,7 +1279,7 @@
         <v>20</v>
       </c>
       <c r="G5" s="2">
-        <v>0</v>
+        <v>303.38909999999998</v>
       </c>
       <c r="H5" s="2">
         <v>5100</v>
@@ -1291,7 +1288,7 @@
         <v>2.5</v>
       </c>
       <c r="J5" s="2">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="K5" s="2">
         <v>354</v>
@@ -1309,7 +1306,7 @@
         <v>1</v>
       </c>
       <c r="P5" s="2">
-        <v>0</v>
+        <v>6400</v>
       </c>
       <c r="Q5" s="2">
         <v>8</v>
@@ -1318,7 +1315,7 @@
         <v>1</v>
       </c>
       <c r="S5" s="2">
-        <v>0</v>
+        <v>318</v>
       </c>
       <c r="T5" s="2">
         <v>2.1000000000000001E-4</v>
@@ -1327,7 +1324,7 @@
         <v>30</v>
       </c>
       <c r="V5" s="2">
-        <v>0</v>
+        <v>86.7</v>
       </c>
       <c r="W5" s="2">
         <v>1.4999999999999999E-4</v>
@@ -1354,7 +1351,7 @@
         <v>3</v>
       </c>
       <c r="AE5" s="2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF5" s="2">
         <v>1</v>
@@ -1407,13 +1404,13 @@
         <v>45</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C6" s="2">
-        <v>6.5699999999999995E-2</v>
+        <v>4.3799999999999999E-2</v>
       </c>
       <c r="D6" s="2">
-        <v>0</v>
+        <v>3.7696840000000001E-3</v>
       </c>
       <c r="E6" s="2">
         <v>12.5</v>
@@ -1422,7 +1419,7 @@
         <v>20</v>
       </c>
       <c r="G6" s="2">
-        <v>303.38909999999998</v>
+        <v>15</v>
       </c>
       <c r="H6" s="2">
         <v>5100</v>
@@ -1431,7 +1428,7 @@
         <v>2.5</v>
       </c>
       <c r="J6" s="2">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="K6" s="2">
         <v>354</v>
@@ -1440,7 +1437,7 @@
         <v>2.5</v>
       </c>
       <c r="M6" s="2">
-        <v>0</v>
+        <v>1373</v>
       </c>
       <c r="N6" s="2">
         <v>10</v>
@@ -1449,7 +1446,7 @@
         <v>1</v>
       </c>
       <c r="P6" s="2">
-        <v>6400</v>
+        <v>1581</v>
       </c>
       <c r="Q6" s="2">
         <v>8</v>
@@ -1458,7 +1455,7 @@
         <v>1</v>
       </c>
       <c r="S6" s="2">
-        <v>318</v>
+        <v>100</v>
       </c>
       <c r="T6" s="2">
         <v>2.1000000000000001E-4</v>
@@ -1467,7 +1464,7 @@
         <v>30</v>
       </c>
       <c r="V6" s="2">
-        <v>86.7</v>
+        <v>41</v>
       </c>
       <c r="W6" s="2">
         <v>1.4999999999999999E-4</v>
@@ -1476,7 +1473,7 @@
         <v>30</v>
       </c>
       <c r="Y6" s="2">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="Z6" s="2">
         <v>2.0000000000000002E-5</v>
@@ -1485,7 +1482,7 @@
         <v>3</v>
       </c>
       <c r="AB6" s="2">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AC6" s="2">
         <v>3.5E-4</v>
@@ -1503,7 +1500,7 @@
         <v>2</v>
       </c>
       <c r="AH6" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AI6" s="2">
         <v>1.4999999999999999E-2</v>
@@ -1512,7 +1509,7 @@
         <v>100</v>
       </c>
       <c r="AK6" s="2">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AL6" s="2">
         <v>1.4999999999999999E-4</v>
@@ -1521,10 +1518,10 @@
         <v>3</v>
       </c>
       <c r="AN6" s="2">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AO6" s="2">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="AP6" s="2">
         <v>1.4999999999999999E-4</v>
@@ -1547,13 +1544,13 @@
         <v>46</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C7" s="2">
-        <v>4.3799999999999999E-2</v>
+        <v>0.219</v>
       </c>
       <c r="D7" s="2">
-        <v>3.7696840000000001E-3</v>
+        <v>0.223556</v>
       </c>
       <c r="E7" s="2">
         <v>12.5</v>
@@ -1562,7 +1559,7 @@
         <v>20</v>
       </c>
       <c r="G7" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="H7" s="2">
         <v>5100</v>
@@ -1571,7 +1568,7 @@
         <v>2.5</v>
       </c>
       <c r="J7" s="2">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="K7" s="2">
         <v>354</v>
@@ -1580,7 +1577,7 @@
         <v>2.5</v>
       </c>
       <c r="M7" s="2">
-        <v>1373</v>
+        <v>234</v>
       </c>
       <c r="N7" s="2">
         <v>10</v>
@@ -1589,7 +1586,7 @@
         <v>1</v>
       </c>
       <c r="P7" s="2">
-        <v>1581</v>
+        <v>962</v>
       </c>
       <c r="Q7" s="2">
         <v>8</v>
@@ -1598,7 +1595,7 @@
         <v>1</v>
       </c>
       <c r="S7" s="2">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="T7" s="2">
         <v>2.1000000000000001E-4</v>
@@ -1607,7 +1604,7 @@
         <v>30</v>
       </c>
       <c r="V7" s="2">
-        <v>41</v>
+        <v>190</v>
       </c>
       <c r="W7" s="2">
         <v>1.4999999999999999E-4</v>
@@ -1616,7 +1613,7 @@
         <v>30</v>
       </c>
       <c r="Y7" s="2">
-        <v>1.8</v>
+        <v>79.8</v>
       </c>
       <c r="Z7" s="2">
         <v>2.0000000000000002E-5</v>
@@ -1625,7 +1622,7 @@
         <v>3</v>
       </c>
       <c r="AB7" s="2">
-        <v>0.45</v>
+        <v>0.152</v>
       </c>
       <c r="AC7" s="2">
         <v>3.5E-4</v>
@@ -1634,7 +1631,7 @@
         <v>3</v>
       </c>
       <c r="AE7" s="2">
-        <v>1000</v>
+        <v>325</v>
       </c>
       <c r="AF7" s="2">
         <v>1</v>
@@ -1643,7 +1640,7 @@
         <v>2</v>
       </c>
       <c r="AH7" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AI7" s="2">
         <v>1.4999999999999999E-2</v>
@@ -1652,7 +1649,7 @@
         <v>100</v>
       </c>
       <c r="AK7" s="2">
-        <v>180</v>
+        <v>15</v>
       </c>
       <c r="AL7" s="2">
         <v>1.4999999999999999E-4</v>
@@ -1661,10 +1658,10 @@
         <v>3</v>
       </c>
       <c r="AN7" s="2">
-        <v>40</v>
+        <v>13.5</v>
       </c>
       <c r="AO7" s="2">
-        <v>97</v>
+        <v>50</v>
       </c>
       <c r="AP7" s="2">
         <v>1.4999999999999999E-4</v>
@@ -1684,16 +1681,16 @@
     </row>
     <row r="8" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C8" s="2">
-        <v>0.219</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="D8" s="2">
-        <v>0.223556</v>
+        <v>7.6447269999999998E-2</v>
       </c>
       <c r="E8" s="2">
         <v>12.5</v>
@@ -1702,7 +1699,7 @@
         <v>20</v>
       </c>
       <c r="G8" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H8" s="2">
         <v>5100</v>
@@ -1711,7 +1708,7 @@
         <v>2.5</v>
       </c>
       <c r="J8" s="2">
-        <v>24</v>
+        <v>11.5</v>
       </c>
       <c r="K8" s="2">
         <v>354</v>
@@ -1720,7 +1717,7 @@
         <v>2.5</v>
       </c>
       <c r="M8" s="2">
-        <v>234</v>
+        <v>164</v>
       </c>
       <c r="N8" s="2">
         <v>10</v>
@@ -1729,7 +1726,7 @@
         <v>1</v>
       </c>
       <c r="P8" s="2">
-        <v>962</v>
+        <v>322</v>
       </c>
       <c r="Q8" s="2">
         <v>8</v>
@@ -1738,7 +1735,7 @@
         <v>1</v>
       </c>
       <c r="S8" s="2">
-        <v>72</v>
+        <v>74.599999999999994</v>
       </c>
       <c r="T8" s="2">
         <v>2.1000000000000001E-4</v>
@@ -1747,7 +1744,7 @@
         <v>30</v>
       </c>
       <c r="V8" s="2">
-        <v>190</v>
+        <v>49</v>
       </c>
       <c r="W8" s="2">
         <v>1.4999999999999999E-4</v>
@@ -1756,7 +1753,7 @@
         <v>30</v>
       </c>
       <c r="Y8" s="2">
-        <v>79.8</v>
+        <v>0.02</v>
       </c>
       <c r="Z8" s="2">
         <v>2.0000000000000002E-5</v>
@@ -1765,7 +1762,7 @@
         <v>3</v>
       </c>
       <c r="AB8" s="2">
-        <v>0.152</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AC8" s="2">
         <v>3.5E-4</v>
@@ -1774,7 +1771,7 @@
         <v>3</v>
       </c>
       <c r="AE8" s="2">
-        <v>325</v>
+        <v>427</v>
       </c>
       <c r="AF8" s="2">
         <v>1</v>
@@ -1783,7 +1780,8 @@
         <v>2</v>
       </c>
       <c r="AH8" s="2">
-        <v>200</v>
+        <f>((200+166)/2)</f>
+        <v>183</v>
       </c>
       <c r="AI8" s="2">
         <v>1.4999999999999999E-2</v>
@@ -1792,7 +1790,7 @@
         <v>100</v>
       </c>
       <c r="AK8" s="2">
-        <v>15</v>
+        <v>5.6</v>
       </c>
       <c r="AL8" s="2">
         <v>1.4999999999999999E-4</v>
@@ -1801,10 +1799,10 @@
         <v>3</v>
       </c>
       <c r="AN8" s="2">
-        <v>13.5</v>
+        <v>41</v>
       </c>
       <c r="AO8" s="2">
-        <v>50</v>
+        <v>0.32</v>
       </c>
       <c r="AP8" s="2">
         <v>1.4999999999999999E-4</v>
@@ -1813,7 +1811,7 @@
         <v>3</v>
       </c>
       <c r="AR8" s="2">
-        <v>0</v>
+        <v>5.25</v>
       </c>
       <c r="AS8" s="2">
         <v>0.8</v>
@@ -1824,16 +1822,16 @@
     </row>
     <row r="9" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="C9" s="2">
-        <v>0.17499999999999999</v>
+        <v>0.24</v>
       </c>
       <c r="D9" s="2">
-        <v>7.6447269999999998E-2</v>
+        <v>9.9897159999999999E-2</v>
       </c>
       <c r="E9" s="2">
         <v>12.5</v>
@@ -1842,7 +1840,7 @@
         <v>20</v>
       </c>
       <c r="G9" s="2">
-        <v>10</v>
+        <v>71.400000000000006</v>
       </c>
       <c r="H9" s="2">
         <v>5100</v>
@@ -1851,7 +1849,8 @@
         <v>2.5</v>
       </c>
       <c r="J9" s="2">
-        <v>11.5</v>
+        <f>((40+32)/2)</f>
+        <v>36</v>
       </c>
       <c r="K9" s="2">
         <v>354</v>
@@ -1860,7 +1859,7 @@
         <v>2.5</v>
       </c>
       <c r="M9" s="2">
-        <v>164</v>
+        <v>1608</v>
       </c>
       <c r="N9" s="2">
         <v>10</v>
@@ -1869,7 +1868,7 @@
         <v>1</v>
       </c>
       <c r="P9" s="2">
-        <v>322</v>
+        <v>598</v>
       </c>
       <c r="Q9" s="2">
         <v>8</v>
@@ -1878,7 +1877,7 @@
         <v>1</v>
       </c>
       <c r="S9" s="2">
-        <v>74.599999999999994</v>
+        <v>2.13</v>
       </c>
       <c r="T9" s="2">
         <v>2.1000000000000001E-4</v>
@@ -1887,7 +1886,7 @@
         <v>30</v>
       </c>
       <c r="V9" s="2">
-        <v>49</v>
+        <v>30.9</v>
       </c>
       <c r="W9" s="2">
         <v>1.4999999999999999E-4</v>
@@ -1896,7 +1895,7 @@
         <v>30</v>
       </c>
       <c r="Y9" s="2">
-        <v>0.02</v>
+        <v>2.0400000000000001E-3</v>
       </c>
       <c r="Z9" s="2">
         <v>2.0000000000000002E-5</v>
@@ -1905,7 +1904,7 @@
         <v>3</v>
       </c>
       <c r="AB9" s="2">
-        <v>8.0000000000000002E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="AC9" s="2">
         <v>3.5E-4</v>
@@ -1914,7 +1913,7 @@
         <v>3</v>
       </c>
       <c r="AE9" s="2">
-        <v>427</v>
+        <v>219</v>
       </c>
       <c r="AF9" s="2">
         <v>1</v>
@@ -1923,8 +1922,7 @@
         <v>2</v>
       </c>
       <c r="AH9" s="2">
-        <f>((200+166)/2)</f>
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="AI9" s="2">
         <v>1.4999999999999999E-2</v>
@@ -1933,7 +1931,7 @@
         <v>100</v>
       </c>
       <c r="AK9" s="2">
-        <v>5.6</v>
+        <v>0.2</v>
       </c>
       <c r="AL9" s="2">
         <v>1.4999999999999999E-4</v>
@@ -1942,10 +1940,10 @@
         <v>3</v>
       </c>
       <c r="AN9" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="AO9" s="2">
-        <v>0.32</v>
+        <v>3.26</v>
       </c>
       <c r="AP9" s="2">
         <v>1.4999999999999999E-4</v>
@@ -1954,153 +1952,12 @@
         <v>3</v>
       </c>
       <c r="AR9" s="2">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="AS9" s="2">
         <v>0.8</v>
       </c>
       <c r="AT9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0.24</v>
-      </c>
-      <c r="D10" s="2">
-        <v>9.9897159999999999E-2</v>
-      </c>
-      <c r="E10" s="2">
-        <v>12.5</v>
-      </c>
-      <c r="F10">
-        <v>20</v>
-      </c>
-      <c r="G10" s="2">
-        <v>71.400000000000006</v>
-      </c>
-      <c r="H10" s="2">
-        <v>5100</v>
-      </c>
-      <c r="I10">
-        <v>2.5</v>
-      </c>
-      <c r="J10" s="2">
-        <f>((40+32)/2)</f>
-        <v>36</v>
-      </c>
-      <c r="K10" s="2">
-        <v>354</v>
-      </c>
-      <c r="L10">
-        <v>2.5</v>
-      </c>
-      <c r="M10" s="2">
-        <v>1608</v>
-      </c>
-      <c r="N10" s="2">
-        <v>10</v>
-      </c>
-      <c r="O10">
-        <v>1</v>
-      </c>
-      <c r="P10" s="2">
-        <v>598</v>
-      </c>
-      <c r="Q10" s="2">
-        <v>8</v>
-      </c>
-      <c r="R10">
-        <v>1</v>
-      </c>
-      <c r="S10" s="2">
-        <v>2.13</v>
-      </c>
-      <c r="T10" s="2">
-        <v>2.1000000000000001E-4</v>
-      </c>
-      <c r="U10">
-        <v>30</v>
-      </c>
-      <c r="V10" s="2">
-        <v>30.9</v>
-      </c>
-      <c r="W10" s="2">
-        <v>1.4999999999999999E-4</v>
-      </c>
-      <c r="X10">
-        <v>30</v>
-      </c>
-      <c r="Y10" s="2">
-        <v>2.0400000000000001E-3</v>
-      </c>
-      <c r="Z10" s="2">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="AA10">
-        <v>3</v>
-      </c>
-      <c r="AB10" s="2">
-        <v>2E-3</v>
-      </c>
-      <c r="AC10" s="2">
-        <v>3.5E-4</v>
-      </c>
-      <c r="AD10">
-        <v>3</v>
-      </c>
-      <c r="AE10" s="2">
-        <v>219</v>
-      </c>
-      <c r="AF10" s="2">
-        <v>1</v>
-      </c>
-      <c r="AG10">
-        <v>2</v>
-      </c>
-      <c r="AH10" s="2">
-        <v>170</v>
-      </c>
-      <c r="AI10" s="2">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="AJ10">
-        <v>100</v>
-      </c>
-      <c r="AK10" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AL10" s="2">
-        <v>1.4999999999999999E-4</v>
-      </c>
-      <c r="AM10">
-        <v>3</v>
-      </c>
-      <c r="AN10" s="2">
-        <v>54</v>
-      </c>
-      <c r="AO10" s="2">
-        <v>3.26</v>
-      </c>
-      <c r="AP10" s="2">
-        <v>1.4999999999999999E-4</v>
-      </c>
-      <c r="AQ10">
-        <v>3</v>
-      </c>
-      <c r="AR10" s="2">
-        <v>4</v>
-      </c>
-      <c r="AS10" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="AT10">
         <v>2</v>
       </c>
     </row>
